--- a/results.xlsx
+++ b/results.xlsx
@@ -457,87 +457,87 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2548</v>
+        <v>2337</v>
       </c>
       <c r="C2" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>13495</v>
+        <v>13950</v>
       </c>
       <c r="E2" t="n">
-        <v>16500</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="C3" t="n">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="D3" t="n">
+        <v>17450</v>
+      </c>
+      <c r="E3" t="n">
         <v>16500</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>2954</v>
+        <v>2395</v>
       </c>
       <c r="C4" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>18920</v>
+        <v>16430</v>
       </c>
       <c r="E4" t="n">
-        <v>16845</v>
+        <v>16925</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>2395</v>
+        <v>3055</v>
       </c>
       <c r="C5" t="n">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
-        <v>16430</v>
+        <v>24565</v>
       </c>
       <c r="E5" t="n">
-        <v>11972.5</v>
+        <v>17859.167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>2395</v>
+        <v>1488</v>
       </c>
       <c r="C6" t="n">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
-        <v>16925</v>
+        <v>5151</v>
       </c>
       <c r="E6" t="n">
-        <v>11972.5</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="7">
@@ -554,123 +554,123 @@
         <v>6575</v>
       </c>
       <c r="E7" t="n">
-        <v>6795</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>1713</v>
+        <v>1876</v>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
-        <v>6479</v>
+        <v>6377</v>
       </c>
       <c r="E8" t="n">
-        <v>5151</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>2024</v>
+        <v>1989</v>
       </c>
       <c r="C9" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D9" t="n">
-        <v>7295</v>
+        <v>7609</v>
       </c>
       <c r="E9" t="n">
-        <v>7295</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>2304</v>
+        <v>1837</v>
       </c>
       <c r="C10" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>8845</v>
+        <v>5399</v>
       </c>
       <c r="E10" t="n">
-        <v>9095</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" t="n">
-        <v>2372</v>
+        <v>2236</v>
       </c>
       <c r="C11" t="n">
         <v>86</v>
       </c>
       <c r="D11" t="n">
-        <v>10295</v>
+        <v>7895</v>
       </c>
       <c r="E11" t="n">
-        <v>6989</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>1874</v>
+        <v>2304</v>
       </c>
       <c r="C12" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D12" t="n">
-        <v>8916.5</v>
+        <v>8845</v>
       </c>
       <c r="E12" t="n">
-        <v>6295</v>
+        <v>9549</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>1909</v>
+        <v>2337</v>
       </c>
       <c r="C13" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D13" t="n">
-        <v>8916.5</v>
+        <v>6785</v>
       </c>
       <c r="E13" t="n">
-        <v>6795</v>
+        <v>8499</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14" t="n">
-        <v>1890</v>
+        <v>1909</v>
       </c>
       <c r="C14" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" t="n">
-        <v>5195</v>
+        <v>8916.5</v>
       </c>
       <c r="E14" t="n">
         <v>5499</v>
@@ -678,376 +678,376 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B15" t="n">
-        <v>2380</v>
+        <v>2734</v>
       </c>
       <c r="C15" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D15" t="n">
-        <v>10945</v>
+        <v>11048</v>
       </c>
       <c r="E15" t="n">
-        <v>11972.5</v>
+        <v>11549</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B16" t="n">
-        <v>2380</v>
+        <v>4066</v>
       </c>
       <c r="C16" t="n">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="D16" t="n">
-        <v>11845</v>
+        <v>32250</v>
       </c>
       <c r="E16" t="n">
-        <v>11972.5</v>
+        <v>35550</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B17" t="n">
-        <v>2385</v>
+        <v>3950</v>
       </c>
       <c r="C17" t="n">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="D17" t="n">
-        <v>13645</v>
+        <v>36000</v>
       </c>
       <c r="E17" t="n">
-        <v>11972.5</v>
+        <v>31600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B18" t="n">
-        <v>3515</v>
+        <v>1890</v>
       </c>
       <c r="C18" t="n">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="D18" t="n">
-        <v>25552</v>
+        <v>5195</v>
       </c>
       <c r="E18" t="n">
-        <v>28248</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>2328</v>
+        <v>1905</v>
       </c>
       <c r="C19" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D19" t="n">
-        <v>8499</v>
+        <v>6795</v>
       </c>
       <c r="E19" t="n">
-        <v>9095</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="B20" t="n">
-        <v>2926</v>
+        <v>2380</v>
       </c>
       <c r="C20" t="n">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="D20" t="n">
-        <v>14489</v>
+        <v>10945</v>
       </c>
       <c r="E20" t="n">
-        <v>14869</v>
+        <v>11845</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B21" t="n">
-        <v>2017</v>
+        <v>2670</v>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D21" t="n">
-        <v>7099</v>
+        <v>18280</v>
       </c>
       <c r="E21" t="n">
-        <v>5399</v>
+        <v>9989</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B22" t="n">
-        <v>1918</v>
+        <v>3750</v>
       </c>
       <c r="C22" t="n">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="D22" t="n">
-        <v>6649</v>
+        <v>28248</v>
       </c>
       <c r="E22" t="n">
-        <v>5480.5</v>
+        <v>34184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B23" t="n">
-        <v>2024</v>
+        <v>3495</v>
       </c>
       <c r="C23" t="n">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="D23" t="n">
-        <v>7349</v>
+        <v>28176</v>
       </c>
       <c r="E23" t="n">
-        <v>6488</v>
+        <v>41315</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B24" t="n">
-        <v>1951</v>
+        <v>3900</v>
       </c>
       <c r="C24" t="n">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="D24" t="n">
-        <v>7299</v>
+        <v>40960</v>
       </c>
       <c r="E24" t="n">
-        <v>7395</v>
+        <v>31600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B25" t="n">
-        <v>2037</v>
+        <v>3715</v>
       </c>
       <c r="C25" t="n">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="D25" t="n">
-        <v>7999</v>
+        <v>45400</v>
       </c>
       <c r="E25" t="n">
-        <v>7799</v>
+        <v>35056</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B26" t="n">
-        <v>2008</v>
+        <v>1918</v>
       </c>
       <c r="C26" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" t="n">
-        <v>8249</v>
+        <v>5389</v>
       </c>
       <c r="E26" t="n">
-        <v>6669</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B27" t="n">
-        <v>3296</v>
+        <v>2403</v>
       </c>
       <c r="C27" t="n">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D27" t="n">
-        <v>14399</v>
+        <v>9279</v>
       </c>
       <c r="E27" t="n">
-        <v>18150</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B28" t="n">
-        <v>3139</v>
+        <v>2024</v>
       </c>
       <c r="C28" t="n">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="D28" t="n">
-        <v>18399</v>
+        <v>7349</v>
       </c>
       <c r="E28" t="n">
-        <v>19699</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B29" t="n">
-        <v>3020</v>
+        <v>1971</v>
       </c>
       <c r="C29" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="D29" t="n">
-        <v>11900</v>
+        <v>7499</v>
       </c>
       <c r="E29" t="n">
-        <v>11048</v>
+        <v>7299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30" t="n">
-        <v>1967</v>
+        <v>1918</v>
       </c>
       <c r="C30" t="n">
         <v>68</v>
       </c>
       <c r="D30" t="n">
-        <v>6229</v>
+        <v>5572</v>
       </c>
       <c r="E30" t="n">
-        <v>6229</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B31" t="n">
-        <v>2818</v>
+        <v>2128</v>
       </c>
       <c r="C31" t="n">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="D31" t="n">
-        <v>12764</v>
+        <v>7957</v>
       </c>
       <c r="E31" t="n">
-        <v>12964</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B32" t="n">
-        <v>2800</v>
+        <v>1967</v>
       </c>
       <c r="C32" t="n">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c r="D32" t="n">
-        <v>37028</v>
+        <v>6229</v>
       </c>
       <c r="E32" t="n">
-        <v>33278</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B33" t="n">
-        <v>2707</v>
+        <v>2818</v>
       </c>
       <c r="C33" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="D33" t="n">
-        <v>15040</v>
+        <v>12764</v>
       </c>
       <c r="E33" t="n">
-        <v>12170</v>
+        <v>12964</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B34" t="n">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="C34" t="n">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="D34" t="n">
-        <v>15510</v>
+        <v>32528</v>
       </c>
       <c r="E34" t="n">
-        <v>12170</v>
+        <v>34028</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B35" t="n">
-        <v>2120</v>
+        <v>2707</v>
       </c>
       <c r="C35" t="n">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D35" t="n">
-        <v>7053</v>
+        <v>15040</v>
       </c>
       <c r="E35" t="n">
-        <v>7738</v>
+        <v>18344</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B36" t="n">
-        <v>2190</v>
+        <v>2240</v>
       </c>
       <c r="C36" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D36" t="n">
-        <v>7775</v>
+        <v>7603</v>
       </c>
       <c r="E36" t="n">
-        <v>7126</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="37">
@@ -1064,194 +1064,194 @@
         <v>9233</v>
       </c>
       <c r="E37" t="n">
-        <v>6785</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B38" t="n">
-        <v>2650</v>
+        <v>2455</v>
       </c>
       <c r="C38" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D38" t="n">
-        <v>11694</v>
+        <v>10198</v>
       </c>
       <c r="E38" t="n">
-        <v>11570</v>
+        <v>10795</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B39" t="n">
-        <v>2290</v>
+        <v>2420</v>
       </c>
       <c r="C39" t="n">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D39" t="n">
-        <v>7898</v>
+        <v>8013</v>
       </c>
       <c r="E39" t="n">
-        <v>6918</v>
+        <v>10898</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B40" t="n">
-        <v>2109</v>
+        <v>1985</v>
       </c>
       <c r="C40" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D40" t="n">
-        <v>7198</v>
+        <v>5348</v>
       </c>
       <c r="E40" t="n">
-        <v>7738</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B41" t="n">
-        <v>2204</v>
+        <v>2015</v>
       </c>
       <c r="C41" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D41" t="n">
-        <v>8238</v>
+        <v>6488</v>
       </c>
       <c r="E41" t="n">
-        <v>7609</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B42" t="n">
-        <v>2300</v>
+        <v>2081</v>
       </c>
       <c r="C42" t="n">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D42" t="n">
-        <v>9538</v>
+        <v>6938</v>
       </c>
       <c r="E42" t="n">
-        <v>11972.5</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B43" t="n">
-        <v>2536</v>
+        <v>2094</v>
       </c>
       <c r="C43" t="n">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D43" t="n">
-        <v>9639</v>
+        <v>7738</v>
       </c>
       <c r="E43" t="n">
-        <v>8921</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B44" t="n">
-        <v>2679</v>
+        <v>2169</v>
       </c>
       <c r="C44" t="n">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D44" t="n">
-        <v>11199</v>
+        <v>8058</v>
       </c>
       <c r="E44" t="n">
-        <v>18280</v>
+        <v>9258</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B45" t="n">
-        <v>2975</v>
+        <v>2414</v>
       </c>
       <c r="C45" t="n">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D45" t="n">
-        <v>17669</v>
+        <v>9988</v>
       </c>
       <c r="E45" t="n">
-        <v>17450</v>
+        <v>10898</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" t="n">
-        <v>2458</v>
+        <v>2976</v>
       </c>
       <c r="C46" t="n">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="D46" t="n">
-        <v>11248</v>
+        <v>16558</v>
       </c>
       <c r="E46" t="n">
-        <v>10198</v>
+        <v>17669</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B47" t="n">
-        <v>3151</v>
+        <v>3016</v>
       </c>
       <c r="C47" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D47" t="n">
-        <v>15750</v>
+        <v>15998</v>
       </c>
       <c r="E47" t="n">
-        <v>19699</v>
+        <v>21485</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B48" t="n">
-        <v>2261</v>
+        <v>3151</v>
       </c>
       <c r="C48" t="n">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="D48" t="n">
-        <v>7775</v>
+        <v>15750</v>
       </c>
       <c r="E48" t="n">
-        <v>7995</v>
+        <v>18399</v>
       </c>
     </row>
     <row r="49">
@@ -1273,53 +1273,53 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B50" t="n">
-        <v>2319</v>
+        <v>2275</v>
       </c>
       <c r="C50" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D50" t="n">
-        <v>9495</v>
+        <v>8495</v>
       </c>
       <c r="E50" t="n">
-        <v>7603</v>
+        <v>9298</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B51" t="n">
-        <v>3045</v>
+        <v>2254</v>
       </c>
       <c r="C51" t="n">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="D51" t="n">
-        <v>18420</v>
+        <v>11595</v>
       </c>
       <c r="E51" t="n">
-        <v>15998</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B52" t="n">
-        <v>3217</v>
+        <v>3034</v>
       </c>
       <c r="C52" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D52" t="n">
-        <v>22470</v>
+        <v>13415</v>
       </c>
       <c r="E52" t="n">
-        <v>13200</v>
+        <v>21485</v>
       </c>
     </row>
   </sheetData>
